--- a/data/all_exclude_lists_isin.xlsx
+++ b/data/all_exclude_lists_isin.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gravercentret-my.sharepoint.com/personal/anja_gravercentret_dk/Documents/Dokumenter/Python_projekter/kommune_investering/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6849A2E0DDAB4C29E72D4CEF85A93291797CD976" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{115C871D-0E0A-48F8-99AD-9A9E34E47AF1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2221,7 +2227,7 @@
     <t>TotalEnergies SE; TotalEnergies</t>
   </si>
   <si>
-    <t xml:space="preserve">Thales SA; THALES SA; Thales </t>
+    <t>Thales SA; THALES SA; Thales </t>
   </si>
   <si>
     <t>Veolia Environnement SA</t>
@@ -2383,7 +2389,7 @@
     <t>Sumitomo Corp.; Sumitomo Corp; Sumitomo corp</t>
   </si>
   <si>
-    <t xml:space="preserve">DAIKIN INDUSTRIES Ltd.; Daikin Industries Ltd; Daikin Industries Ltd.  </t>
+    <t>DAIKIN INDUSTRIES Ltd.; Daikin Industries Ltd; Daikin Industries Ltd.  </t>
   </si>
   <si>
     <t>Tokyo Gas Co., Ltd; Tokyo Gas Co Ltd; Tokyo Gas Co., Ltd.</t>
@@ -2554,7 +2560,7 @@
     <t>Chevron; Chevron corp; Chevron Corp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coinbase Global, Inc. </t>
+    <t>Coinbase Global, Inc. </t>
   </si>
   <si>
     <t>COMSTOCK RESOURCES, INC.; Comstock Resources, Inc.</t>
@@ -3064,7 +3070,7 @@
     <t>Industriens: Thermal coal extraction; Lægernes: Udvinding af termisk kul; Lærernes Pension: Fossils; PenSam: Kul (kul-eksponering &gt; 5%); Velliv: Fossil - Coal expansion</t>
   </si>
   <si>
-    <t xml:space="preserve">AP Pension: Kontroversielle våben; BankInvest: Controversial Weapon - White Phosphorus; Lærernes Pension: Controversial Weapons; Nykredit: Kontroversielle våben; PFA: Involveret i produktion af hvidt fosfor </t>
+    <t>AP Pension: Kontroversielle våben; BankInvest: Controversial Weapon - White Phosphorus; Lærernes Pension: Controversial Weapons; Nykredit: Kontroversielle våben; PFA: Involveret i produktion af hvidt fosfor </t>
   </si>
   <si>
     <t>Lærernes Pension: Fossils; Nykredit: Fossil ekspansion; Velliv: Fossil - Transition</t>
@@ -5515,8 +5521,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5579,13 +5585,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5623,7 +5637,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5657,6 +5671,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5691,9 +5706,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5866,14 +5882,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5896,7 +5915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5919,7 +5938,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5942,7 +5961,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5965,7 +5984,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5988,7 +6007,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6011,7 +6030,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6034,7 +6053,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6057,7 +6076,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6080,7 +6099,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6103,7 +6122,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6126,7 +6145,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6149,7 +6168,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -6172,7 +6191,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -6195,7 +6214,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -6218,7 +6237,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -6241,7 +6260,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -6264,7 +6283,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -6287,7 +6306,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -6310,7 +6329,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -6333,7 +6352,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -6356,7 +6375,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -6379,7 +6398,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -6402,7 +6421,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -6425,7 +6444,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -6448,7 +6467,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -6471,7 +6490,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -6494,7 +6513,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -6517,7 +6536,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -6540,7 +6559,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -6563,7 +6582,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -6586,7 +6605,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6609,7 +6628,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6632,7 +6651,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -6655,7 +6674,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -6678,7 +6697,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -6701,7 +6720,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -6724,7 +6743,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -6747,7 +6766,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -6770,7 +6789,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -6793,7 +6812,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -6816,7 +6835,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -6839,7 +6858,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -6862,7 +6881,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -6885,7 +6904,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -6908,7 +6927,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -6931,7 +6950,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -6954,7 +6973,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -6977,7 +6996,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -7000,7 +7019,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -7023,7 +7042,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -7046,7 +7065,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -7069,7 +7088,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -7092,7 +7111,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -7115,7 +7134,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -7138,7 +7157,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -7161,7 +7180,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -7184,7 +7203,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -7207,7 +7226,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -7230,7 +7249,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -7253,7 +7272,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -7276,7 +7295,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -7299,7 +7318,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -7322,7 +7341,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -7345,7 +7364,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -7368,7 +7387,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -7391,7 +7410,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -7414,7 +7433,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -7437,7 +7456,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -7460,7 +7479,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -7483,7 +7502,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -7506,7 +7525,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -7529,7 +7548,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -7552,7 +7571,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -7575,7 +7594,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -7598,7 +7617,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -7621,7 +7640,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -7644,7 +7663,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -7667,7 +7686,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -7690,7 +7709,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -7713,7 +7732,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -7736,7 +7755,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -7759,7 +7778,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -7782,7 +7801,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -7805,7 +7824,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -7828,7 +7847,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -7851,7 +7870,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -7874,7 +7893,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -7897,7 +7916,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -7920,7 +7939,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -7943,7 +7962,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -7966,7 +7985,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -7989,7 +8008,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -8012,7 +8031,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -8035,7 +8054,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -8058,7 +8077,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -8081,7 +8100,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -8104,7 +8123,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -8127,7 +8146,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -8150,7 +8169,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -8173,7 +8192,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -8196,7 +8215,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -8219,7 +8238,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -8242,7 +8261,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -8265,7 +8284,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -8288,7 +8307,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -8311,7 +8330,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -8334,7 +8353,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -8357,7 +8376,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -8380,7 +8399,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -8403,7 +8422,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -8426,7 +8445,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -8449,7 +8468,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -8472,7 +8491,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -8495,7 +8514,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -8518,7 +8537,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -8541,7 +8560,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -8564,7 +8583,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -8587,7 +8606,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -8610,7 +8629,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -8633,7 +8652,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -8656,7 +8675,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -8679,7 +8698,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -8702,7 +8721,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -8725,7 +8744,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -8748,7 +8767,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -8771,7 +8790,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -8794,7 +8813,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -8817,7 +8836,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -8840,7 +8859,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -8863,7 +8882,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -8886,7 +8905,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -8909,7 +8928,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -8932,7 +8951,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -8955,7 +8974,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -8978,7 +8997,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -9001,7 +9020,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -9024,7 +9043,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -9047,7 +9066,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -9070,7 +9089,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -9093,7 +9112,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -9116,7 +9135,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -9139,7 +9158,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -9162,7 +9181,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -9185,7 +9204,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -9208,7 +9227,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -9231,7 +9250,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -9254,7 +9273,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -9277,7 +9296,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -9300,7 +9319,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -9323,7 +9342,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -9346,7 +9365,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -9369,7 +9388,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -9392,7 +9411,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -9415,7 +9434,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -9438,7 +9457,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -9461,7 +9480,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -9484,7 +9503,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -9507,7 +9526,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -9530,7 +9549,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -9553,7 +9572,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -9576,7 +9595,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -9599,7 +9618,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -9622,7 +9641,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -9645,7 +9664,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -9668,7 +9687,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -9691,7 +9710,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -9714,7 +9733,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -9737,7 +9756,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -9760,7 +9779,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -9783,7 +9802,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -9806,7 +9825,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -9829,7 +9848,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -9852,7 +9871,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -9875,7 +9894,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -9898,7 +9917,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -9921,7 +9940,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -9944,7 +9963,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -9967,7 +9986,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -9990,7 +10009,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -10013,7 +10032,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -10036,7 +10055,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -10059,7 +10078,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -10082,7 +10101,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -10105,7 +10124,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -10128,7 +10147,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -10151,7 +10170,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -10174,7 +10193,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -10197,7 +10216,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -10220,7 +10239,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -10243,7 +10262,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -10266,7 +10285,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -10289,7 +10308,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -10312,7 +10331,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -10335,7 +10354,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -10358,7 +10377,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -10381,7 +10400,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -10404,7 +10423,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -10427,7 +10446,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -10450,7 +10469,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -10473,7 +10492,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -10496,7 +10515,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -10519,7 +10538,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -10542,7 +10561,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -10565,7 +10584,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -10588,7 +10607,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -10611,7 +10630,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -10634,7 +10653,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -10657,7 +10676,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -10680,7 +10699,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -10703,7 +10722,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -10726,7 +10745,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -10749,7 +10768,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -10772,7 +10791,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -10795,7 +10814,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -10818,7 +10837,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -10841,7 +10860,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -10864,7 +10883,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -10887,7 +10906,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -10910,7 +10929,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -10933,7 +10952,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -10956,7 +10975,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -10979,7 +10998,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -11002,7 +11021,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -11025,7 +11044,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -11048,7 +11067,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -11071,7 +11090,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -11094,7 +11113,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -11117,7 +11136,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -11140,7 +11159,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -11163,7 +11182,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -11186,7 +11205,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -11209,7 +11228,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -11232,7 +11251,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -11255,7 +11274,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -11278,7 +11297,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -11301,7 +11320,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -11324,7 +11343,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -11347,7 +11366,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -11370,7 +11389,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -11393,7 +11412,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -11416,7 +11435,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -11439,7 +11458,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -11462,7 +11481,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -11485,7 +11504,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -11508,7 +11527,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -11531,7 +11550,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -11554,7 +11573,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -11577,7 +11596,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -11600,7 +11619,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -11623,7 +11642,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -11646,7 +11665,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -11669,7 +11688,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>258</v>
       </c>
@@ -11692,7 +11711,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -11715,7 +11734,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -11738,7 +11757,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>261</v>
       </c>
@@ -11761,7 +11780,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -11784,7 +11803,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -11807,7 +11826,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -11830,7 +11849,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -11853,7 +11872,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -11876,7 +11895,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -11899,7 +11918,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>268</v>
       </c>
@@ -11922,7 +11941,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>269</v>
       </c>
@@ -11945,7 +11964,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -11968,7 +11987,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>271</v>
       </c>
@@ -11991,7 +12010,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -12014,7 +12033,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -12037,7 +12056,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -12060,7 +12079,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -12083,7 +12102,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -12106,7 +12125,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -12129,7 +12148,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -12152,7 +12171,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -12175,7 +12194,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -12198,7 +12217,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -12221,7 +12240,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -12244,7 +12263,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>283</v>
       </c>
@@ -12267,7 +12286,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>284</v>
       </c>
@@ -12290,7 +12309,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>285</v>
       </c>
@@ -12313,7 +12332,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>286</v>
       </c>
@@ -12336,7 +12355,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -12359,7 +12378,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>288</v>
       </c>
@@ -12382,7 +12401,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -12405,7 +12424,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>290</v>
       </c>
@@ -12428,7 +12447,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>291</v>
       </c>
@@ -12451,7 +12470,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>292</v>
       </c>
@@ -12474,7 +12493,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>293</v>
       </c>
@@ -12497,7 +12516,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>294</v>
       </c>
@@ -12520,7 +12539,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>295</v>
       </c>
@@ -12543,7 +12562,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>296</v>
       </c>
@@ -12566,7 +12585,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -12589,7 +12608,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>298</v>
       </c>
@@ -12612,7 +12631,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -12635,7 +12654,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>300</v>
       </c>
@@ -12658,7 +12677,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>301</v>
       </c>
@@ -12681,7 +12700,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -12704,7 +12723,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -12727,7 +12746,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -12750,7 +12769,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -12773,7 +12792,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -12796,7 +12815,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>307</v>
       </c>
@@ -12819,7 +12838,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>308</v>
       </c>
@@ -12842,7 +12861,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>309</v>
       </c>
@@ -12865,7 +12884,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -12888,7 +12907,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -12911,7 +12930,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -12934,7 +12953,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -12957,7 +12976,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -12980,7 +12999,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>315</v>
       </c>
@@ -13003,7 +13022,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>316</v>
       </c>
@@ -13026,7 +13045,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -13049,7 +13068,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>318</v>
       </c>
@@ -13072,7 +13091,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>319</v>
       </c>
@@ -13095,7 +13114,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>320</v>
       </c>
@@ -13118,7 +13137,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>321</v>
       </c>
@@ -13141,7 +13160,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>322</v>
       </c>
@@ -13164,7 +13183,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>323</v>
       </c>
@@ -13187,7 +13206,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>324</v>
       </c>
@@ -13210,7 +13229,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>325</v>
       </c>
@@ -13233,7 +13252,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>326</v>
       </c>
@@ -13256,7 +13275,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>327</v>
       </c>
@@ -13279,7 +13298,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>328</v>
       </c>
@@ -13302,7 +13321,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>329</v>
       </c>
@@ -13325,7 +13344,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>330</v>
       </c>
@@ -13348,7 +13367,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>331</v>
       </c>
@@ -13371,7 +13390,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>332</v>
       </c>
@@ -13394,7 +13413,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -13417,7 +13436,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>334</v>
       </c>
@@ -13440,7 +13459,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>335</v>
       </c>
@@ -13463,7 +13482,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>336</v>
       </c>
@@ -13486,7 +13505,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>337</v>
       </c>
@@ -13509,7 +13528,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>338</v>
       </c>
@@ -13532,7 +13551,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>339</v>
       </c>
@@ -13555,7 +13574,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>340</v>
       </c>
@@ -13578,7 +13597,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>341</v>
       </c>
@@ -13601,7 +13620,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>342</v>
       </c>
@@ -13624,7 +13643,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>343</v>
       </c>
@@ -13647,7 +13666,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>344</v>
       </c>
@@ -13670,7 +13689,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>345</v>
       </c>
@@ -13693,7 +13712,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>346</v>
       </c>
@@ -13716,7 +13735,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>347</v>
       </c>
@@ -13739,7 +13758,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>348</v>
       </c>
@@ -13762,7 +13781,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>349</v>
       </c>
@@ -13785,7 +13804,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>350</v>
       </c>
@@ -13808,7 +13827,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>351</v>
       </c>
@@ -13831,7 +13850,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>352</v>
       </c>
@@ -13848,7 +13867,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>353</v>
       </c>
@@ -13865,7 +13884,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>354</v>
       </c>
@@ -13882,7 +13901,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>355</v>
       </c>
@@ -13899,7 +13918,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>356</v>
       </c>
@@ -13922,7 +13941,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>357</v>
       </c>
@@ -13945,7 +13964,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>358</v>
       </c>
@@ -13968,7 +13987,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>359</v>
       </c>
@@ -13991,7 +14010,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>360</v>
       </c>
@@ -14014,7 +14033,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>361</v>
       </c>
@@ -14037,7 +14056,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>362</v>
       </c>
@@ -14060,7 +14079,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>363</v>
       </c>
@@ -14083,7 +14102,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>364</v>
       </c>
@@ -14106,7 +14125,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>365</v>
       </c>
@@ -14129,7 +14148,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>366</v>
       </c>
@@ -14152,7 +14171,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>367</v>
       </c>
@@ -14175,7 +14194,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>368</v>
       </c>
@@ -14198,7 +14217,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -14221,7 +14240,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>370</v>
       </c>
@@ -14244,7 +14263,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>371</v>
       </c>
@@ -14267,7 +14286,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>372</v>
       </c>
@@ -14290,7 +14309,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>373</v>
       </c>
@@ -14313,7 +14332,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>374</v>
       </c>
@@ -14336,7 +14355,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>375</v>
       </c>
@@ -14359,7 +14378,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>376</v>
       </c>
@@ -14382,7 +14401,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>377</v>
       </c>
@@ -14405,7 +14424,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>378</v>
       </c>
@@ -14428,7 +14447,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>379</v>
       </c>
@@ -14451,7 +14470,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>380</v>
       </c>
@@ -14474,7 +14493,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>381</v>
       </c>
@@ -14497,7 +14516,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>382</v>
       </c>
@@ -14520,7 +14539,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>383</v>
       </c>
@@ -14543,7 +14562,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>384</v>
       </c>
@@ -14566,7 +14585,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>385</v>
       </c>
@@ -14589,7 +14608,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>386</v>
       </c>
@@ -14612,7 +14631,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>387</v>
       </c>
@@ -14635,7 +14654,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>388</v>
       </c>
@@ -14658,7 +14677,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>389</v>
       </c>
@@ -14681,7 +14700,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>390</v>
       </c>
@@ -14704,7 +14723,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>391</v>
       </c>
@@ -14727,7 +14746,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>392</v>
       </c>
@@ -14750,7 +14769,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>393</v>
       </c>
@@ -14773,7 +14792,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>394</v>
       </c>
@@ -14796,7 +14815,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>395</v>
       </c>
@@ -14819,7 +14838,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>396</v>
       </c>
@@ -14842,7 +14861,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>397</v>
       </c>
@@ -14865,7 +14884,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>398</v>
       </c>
@@ -14888,7 +14907,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>399</v>
       </c>
@@ -14911,7 +14930,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>400</v>
       </c>
@@ -14934,7 +14953,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>401</v>
       </c>
@@ -14957,7 +14976,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>402</v>
       </c>
@@ -14980,7 +14999,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>403</v>
       </c>
@@ -15003,7 +15022,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>404</v>
       </c>
@@ -15026,7 +15045,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>405</v>
       </c>
@@ -15049,7 +15068,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>406</v>
       </c>
@@ -15072,7 +15091,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>407</v>
       </c>
@@ -15095,7 +15114,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>408</v>
       </c>
@@ -15118,7 +15137,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>409</v>
       </c>
@@ -15141,7 +15160,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>410</v>
       </c>
@@ -15164,7 +15183,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>411</v>
       </c>
@@ -15187,7 +15206,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>412</v>
       </c>
@@ -15210,7 +15229,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>413</v>
       </c>
@@ -15233,7 +15252,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>414</v>
       </c>
@@ -15256,7 +15275,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>415</v>
       </c>
@@ -15279,7 +15298,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>416</v>
       </c>
@@ -15302,7 +15321,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>417</v>
       </c>
@@ -15325,7 +15344,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>418</v>
       </c>
@@ -15348,7 +15367,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>419</v>
       </c>
@@ -15371,7 +15390,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>420</v>
       </c>
@@ -15394,7 +15413,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>421</v>
       </c>
@@ -15417,7 +15436,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>422</v>
       </c>
@@ -15440,7 +15459,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>423</v>
       </c>
@@ -15463,7 +15482,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>424</v>
       </c>
@@ -15486,7 +15505,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>425</v>
       </c>
@@ -15509,7 +15528,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>426</v>
       </c>
@@ -15532,7 +15551,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>427</v>
       </c>
@@ -15555,7 +15574,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>428</v>
       </c>
@@ -15578,7 +15597,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>429</v>
       </c>
@@ -15601,7 +15620,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>430</v>
       </c>
@@ -15624,7 +15643,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>431</v>
       </c>
@@ -15647,7 +15666,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>432</v>
       </c>
@@ -15670,7 +15689,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>433</v>
       </c>
@@ -15693,7 +15712,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>434</v>
       </c>
@@ -15716,7 +15735,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>435</v>
       </c>
@@ -15739,7 +15758,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>436</v>
       </c>
@@ -15762,7 +15781,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>437</v>
       </c>
@@ -15785,7 +15804,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>438</v>
       </c>
@@ -15808,7 +15827,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>439</v>
       </c>
@@ -15831,7 +15850,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>440</v>
       </c>
@@ -15854,7 +15873,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>441</v>
       </c>
@@ -15877,7 +15896,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>442</v>
       </c>
@@ -15900,7 +15919,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>443</v>
       </c>
@@ -15923,7 +15942,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>444</v>
       </c>
@@ -15946,7 +15965,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>445</v>
       </c>
@@ -15969,7 +15988,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>446</v>
       </c>
@@ -15992,7 +16011,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>447</v>
       </c>
@@ -16015,7 +16034,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>448</v>
       </c>
@@ -16038,7 +16057,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>449</v>
       </c>
@@ -16061,7 +16080,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>450</v>
       </c>
@@ -16084,7 +16103,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>451</v>
       </c>
@@ -16107,7 +16126,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>452</v>
       </c>
@@ -16130,7 +16149,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>453</v>
       </c>
@@ -16153,7 +16172,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>454</v>
       </c>
@@ -16176,7 +16195,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>455</v>
       </c>
@@ -16199,7 +16218,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>456</v>
       </c>
@@ -16222,7 +16241,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>457</v>
       </c>
@@ -16245,7 +16264,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>458</v>
       </c>
@@ -16268,7 +16287,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>459</v>
       </c>
@@ -16291,7 +16310,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>460</v>
       </c>
@@ -16314,7 +16333,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>461</v>
       </c>
@@ -16337,7 +16356,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>462</v>
       </c>
@@ -16360,7 +16379,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>463</v>
       </c>
@@ -16383,7 +16402,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>464</v>
       </c>
@@ -16406,7 +16425,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>465</v>
       </c>
@@ -16429,7 +16448,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>466</v>
       </c>
@@ -16452,7 +16471,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>467</v>
       </c>
@@ -16475,7 +16494,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>468</v>
       </c>
@@ -16498,7 +16517,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>469</v>
       </c>
@@ -16521,7 +16540,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>470</v>
       </c>
@@ -16544,7 +16563,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>471</v>
       </c>
@@ -16567,7 +16586,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>472</v>
       </c>
@@ -16590,7 +16609,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>473</v>
       </c>
@@ -16613,7 +16632,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>474</v>
       </c>
@@ -16636,7 +16655,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>475</v>
       </c>
@@ -16659,7 +16678,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>476</v>
       </c>
@@ -16682,7 +16701,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>477</v>
       </c>
@@ -16705,7 +16724,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>478</v>
       </c>
@@ -16728,7 +16747,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>479</v>
       </c>
@@ -16751,7 +16770,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>480</v>
       </c>
@@ -16774,7 +16793,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>481</v>
       </c>
@@ -16797,7 +16816,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>482</v>
       </c>
@@ -16820,7 +16839,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>483</v>
       </c>
@@ -16843,7 +16862,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>484</v>
       </c>
@@ -16866,7 +16885,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>485</v>
       </c>
@@ -16889,7 +16908,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>486</v>
       </c>
@@ -16912,7 +16931,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>487</v>
       </c>
@@ -16935,7 +16954,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>488</v>
       </c>
@@ -16958,7 +16977,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>489</v>
       </c>
@@ -16981,7 +17000,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>490</v>
       </c>
@@ -17004,7 +17023,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>491</v>
       </c>
@@ -17027,7 +17046,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>492</v>
       </c>
@@ -17050,7 +17069,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>493</v>
       </c>
@@ -17073,7 +17092,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>494</v>
       </c>
@@ -17096,7 +17115,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>495</v>
       </c>
@@ -17119,7 +17138,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>496</v>
       </c>
@@ -17142,7 +17161,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>497</v>
       </c>
@@ -17165,7 +17184,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>498</v>
       </c>
@@ -17188,7 +17207,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>499</v>
       </c>
@@ -17211,7 +17230,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>500</v>
       </c>
@@ -17234,7 +17253,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>501</v>
       </c>
@@ -17257,7 +17276,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>502</v>
       </c>
@@ -17280,7 +17299,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>503</v>
       </c>
@@ -17303,7 +17322,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>504</v>
       </c>
@@ -17326,7 +17345,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>505</v>
       </c>
@@ -17349,7 +17368,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>506</v>
       </c>
@@ -17372,7 +17391,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>507</v>
       </c>
@@ -17395,7 +17414,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>508</v>
       </c>
@@ -17418,7 +17437,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>509</v>
       </c>
@@ -17441,7 +17460,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>510</v>
       </c>
@@ -17464,7 +17483,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>511</v>
       </c>
@@ -17487,7 +17506,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>512</v>
       </c>
@@ -17510,7 +17529,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>513</v>
       </c>
@@ -17533,7 +17552,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>514</v>
       </c>
@@ -17556,7 +17575,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>515</v>
       </c>
@@ -17579,7 +17598,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>516</v>
       </c>
@@ -17602,7 +17621,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>517</v>
       </c>
@@ -17625,7 +17644,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>518</v>
       </c>
@@ -17648,7 +17667,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>519</v>
       </c>
@@ -17671,7 +17690,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>520</v>
       </c>
@@ -17694,7 +17713,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>521</v>
       </c>
@@ -17717,7 +17736,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>522</v>
       </c>
@@ -17740,7 +17759,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>523</v>
       </c>
@@ -17763,7 +17782,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>524</v>
       </c>
@@ -17786,7 +17805,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>525</v>
       </c>
@@ -17809,7 +17828,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>526</v>
       </c>
@@ -17832,7 +17851,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>527</v>
       </c>
@@ -17855,7 +17874,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>528</v>
       </c>
@@ -17878,7 +17897,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>529</v>
       </c>
@@ -17901,7 +17920,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>530</v>
       </c>
@@ -17924,7 +17943,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>531</v>
       </c>
@@ -17947,7 +17966,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>532</v>
       </c>
@@ -17970,7 +17989,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>533</v>
       </c>
@@ -17993,7 +18012,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>534</v>
       </c>
@@ -18016,7 +18035,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>535</v>
       </c>
@@ -18039,7 +18058,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>536</v>
       </c>
@@ -18062,7 +18081,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>537</v>
       </c>
@@ -18085,7 +18104,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>538</v>
       </c>
@@ -18108,7 +18127,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>539</v>
       </c>
@@ -18131,7 +18150,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>540</v>
       </c>
@@ -18154,7 +18173,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>541</v>
       </c>
@@ -18177,7 +18196,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>542</v>
       </c>
@@ -18200,7 +18219,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>543</v>
       </c>
@@ -18223,7 +18242,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>544</v>
       </c>
@@ -18246,7 +18265,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>545</v>
       </c>
@@ -18269,7 +18288,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>546</v>
       </c>
@@ -18292,7 +18311,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>547</v>
       </c>
@@ -18315,7 +18334,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>548</v>
       </c>
@@ -18338,7 +18357,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>549</v>
       </c>
@@ -18361,7 +18380,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>550</v>
       </c>
@@ -18384,7 +18403,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>551</v>
       </c>
@@ -18407,7 +18426,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>552</v>
       </c>
@@ -18430,7 +18449,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>553</v>
       </c>
@@ -18453,7 +18472,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>554</v>
       </c>
@@ -18476,7 +18495,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>555</v>
       </c>
@@ -18499,7 +18518,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>556</v>
       </c>
@@ -18522,7 +18541,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>557</v>
       </c>
@@ -18545,7 +18564,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>558</v>
       </c>
@@ -18568,7 +18587,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>559</v>
       </c>
@@ -18591,7 +18610,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>560</v>
       </c>
@@ -18614,7 +18633,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>561</v>
       </c>
@@ -18637,7 +18656,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>562</v>
       </c>
@@ -18660,7 +18679,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>563</v>
       </c>
@@ -18683,7 +18702,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>564</v>
       </c>
@@ -18706,7 +18725,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>565</v>
       </c>
@@ -18729,7 +18748,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>566</v>
       </c>
@@ -18752,7 +18771,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>567</v>
       </c>
@@ -18775,7 +18794,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>568</v>
       </c>
@@ -18798,7 +18817,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>569</v>
       </c>
@@ -18821,7 +18840,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>570</v>
       </c>
@@ -18844,7 +18863,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>571</v>
       </c>
@@ -18867,7 +18886,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>572</v>
       </c>
@@ -18890,7 +18909,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>573</v>
       </c>
@@ -18913,7 +18932,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>574</v>
       </c>
@@ -18936,7 +18955,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>575</v>
       </c>
@@ -18959,7 +18978,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>576</v>
       </c>
@@ -18982,7 +19001,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>577</v>
       </c>
@@ -19005,7 +19024,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>578</v>
       </c>
@@ -19028,7 +19047,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>579</v>
       </c>
@@ -19051,7 +19070,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>580</v>
       </c>
@@ -19074,7 +19093,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>581</v>
       </c>
@@ -19097,7 +19116,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>582</v>
       </c>
@@ -19120,7 +19139,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>583</v>
       </c>
@@ -19143,7 +19162,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>584</v>
       </c>
@@ -19166,7 +19185,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>585</v>
       </c>
@@ -19189,7 +19208,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>586</v>
       </c>
@@ -19212,7 +19231,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>587</v>
       </c>
@@ -19235,7 +19254,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>588</v>
       </c>
@@ -19258,7 +19277,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>589</v>
       </c>
@@ -19281,7 +19300,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>590</v>
       </c>
@@ -19304,7 +19323,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>591</v>
       </c>
@@ -19327,7 +19346,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>592</v>
       </c>
@@ -19350,7 +19369,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>593</v>
       </c>
@@ -19373,7 +19392,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>594</v>
       </c>
@@ -19396,7 +19415,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>595</v>
       </c>
@@ -19419,7 +19438,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>596</v>
       </c>
@@ -19442,7 +19461,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>597</v>
       </c>
@@ -19465,7 +19484,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>598</v>
       </c>
@@ -19488,7 +19507,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>599</v>
       </c>
@@ -19511,7 +19530,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>600</v>
       </c>
@@ -19534,7 +19553,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>601</v>
       </c>
@@ -19557,7 +19576,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>602</v>
       </c>
@@ -19580,7 +19599,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>603</v>
       </c>
@@ -19603,7 +19622,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>604</v>
       </c>
@@ -19626,7 +19645,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>605</v>
       </c>
@@ -19649,7 +19668,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>606</v>
       </c>
@@ -19672,7 +19691,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>607</v>
       </c>
@@ -19695,7 +19714,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>608</v>
       </c>
@@ -19718,7 +19737,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>609</v>
       </c>
@@ -19741,7 +19760,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>610</v>
       </c>
@@ -19764,7 +19783,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>611</v>
       </c>
@@ -19787,7 +19806,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>612</v>
       </c>
@@ -19810,7 +19829,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>613</v>
       </c>
@@ -19833,7 +19852,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>614</v>
       </c>
@@ -19856,7 +19875,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>615</v>
       </c>
@@ -19879,7 +19898,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>616</v>
       </c>
@@ -19902,7 +19921,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>617</v>
       </c>
@@ -19925,7 +19944,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>618</v>
       </c>
@@ -19948,7 +19967,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>619</v>
       </c>
@@ -19971,7 +19990,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>620</v>
       </c>
@@ -19994,7 +20013,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>621</v>
       </c>
@@ -20017,7 +20036,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>622</v>
       </c>
@@ -20040,7 +20059,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>623</v>
       </c>
@@ -20063,7 +20082,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>624</v>
       </c>
@@ -20086,7 +20105,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>625</v>
       </c>
@@ -20109,7 +20128,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>626</v>
       </c>
@@ -20132,7 +20151,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>627</v>
       </c>
@@ -20155,7 +20174,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>628</v>
       </c>
@@ -20178,7 +20197,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>629</v>
       </c>
@@ -20201,7 +20220,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>630</v>
       </c>
@@ -20224,7 +20243,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>631</v>
       </c>
@@ -20247,7 +20266,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>632</v>
       </c>
@@ -20270,7 +20289,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>633</v>
       </c>
@@ -20293,7 +20312,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>634</v>
       </c>
@@ -20316,7 +20335,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>635</v>
       </c>
@@ -20339,7 +20358,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>636</v>
       </c>
@@ -20362,7 +20381,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>637</v>
       </c>
@@ -20385,7 +20404,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>638</v>
       </c>
@@ -20408,7 +20427,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>639</v>
       </c>
@@ -20431,7 +20450,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>640</v>
       </c>
@@ -20454,7 +20473,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>641</v>
       </c>
@@ -20477,7 +20496,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>642</v>
       </c>
@@ -20500,7 +20519,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>643</v>
       </c>
@@ -20523,7 +20542,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>644</v>
       </c>
@@ -20546,7 +20565,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>645</v>
       </c>
@@ -20569,7 +20588,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>646</v>
       </c>
@@ -20592,7 +20611,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>647</v>
       </c>
@@ -20615,7 +20634,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>648</v>
       </c>
@@ -20638,7 +20657,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>649</v>
       </c>
@@ -20661,7 +20680,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>650</v>
       </c>
@@ -20684,7 +20703,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>651</v>
       </c>
@@ -20707,7 +20726,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>652</v>
       </c>
@@ -20730,7 +20749,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>653</v>
       </c>
@@ -20753,7 +20772,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>654</v>
       </c>
@@ -20776,7 +20795,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>655</v>
       </c>
@@ -20799,7 +20818,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>656</v>
       </c>
@@ -20822,7 +20841,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>657</v>
       </c>
@@ -20845,7 +20864,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>658</v>
       </c>
@@ -20868,7 +20887,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>659</v>
       </c>
@@ -20891,7 +20910,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>660</v>
       </c>
@@ -20914,7 +20933,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>661</v>
       </c>
@@ -20937,7 +20956,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>662</v>
       </c>
@@ -20960,7 +20979,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>663</v>
       </c>
@@ -20983,7 +21002,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>664</v>
       </c>
@@ -21006,7 +21025,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>665</v>
       </c>
@@ -21029,7 +21048,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>666</v>
       </c>
@@ -21052,7 +21071,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>667</v>
       </c>
@@ -21075,7 +21094,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>668</v>
       </c>
@@ -21098,7 +21117,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>669</v>
       </c>
@@ -21121,7 +21140,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>670</v>
       </c>
@@ -21144,7 +21163,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>671</v>
       </c>
@@ -21167,7 +21186,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>672</v>
       </c>
@@ -21190,7 +21209,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>673</v>
       </c>
@@ -21213,7 +21232,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>674</v>
       </c>
@@ -21236,7 +21255,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>675</v>
       </c>
@@ -21259,7 +21278,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>676</v>
       </c>
@@ -21282,7 +21301,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>677</v>
       </c>
@@ -21305,7 +21324,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>678</v>
       </c>
@@ -21328,7 +21347,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>679</v>
       </c>
@@ -21351,7 +21370,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>680</v>
       </c>
@@ -21374,7 +21393,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>681</v>
       </c>
@@ -21397,7 +21416,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>682</v>
       </c>
@@ -21420,7 +21439,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>683</v>
       </c>
@@ -21443,7 +21462,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>684</v>
       </c>
@@ -21466,7 +21485,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>685</v>
       </c>
@@ -21489,7 +21508,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>686</v>
       </c>
@@ -21512,7 +21531,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>687</v>
       </c>
@@ -21535,7 +21554,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>688</v>
       </c>
@@ -21558,7 +21577,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>689</v>
       </c>
@@ -21581,7 +21600,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>690</v>
       </c>
@@ -21604,7 +21623,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>691</v>
       </c>
@@ -21627,7 +21646,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>692</v>
       </c>
@@ -21650,7 +21669,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>693</v>
       </c>
@@ -21673,7 +21692,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>694</v>
       </c>
@@ -21696,7 +21715,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>695</v>
       </c>
@@ -21719,7 +21738,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>696</v>
       </c>
@@ -21742,7 +21761,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>697</v>
       </c>
@@ -21765,7 +21784,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>698</v>
       </c>

--- a/data/all_exclude_lists_isin.xlsx
+++ b/data/all_exclude_lists_isin.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gravercentret-my.sharepoint.com/personal/anja_gravercentret_dk/Documents/Dokumenter/Python_projekter/kommune_investering/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_77F922F8F6DB0F014F2D4C017D2A261D797D8FAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39E9DB42-0031-4B11-B112-C2921D4E62A8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2347,7 +2356,7 @@
     <t>Pernod Ricard SA</t>
   </si>
   <si>
-    <t xml:space="preserve">Thales SA; THALES SA; Thales </t>
+    <t>Thales SA; THALES SA; Thales </t>
   </si>
   <si>
     <t>Veolia Environnement SA</t>
@@ -2569,7 +2578,7 @@
     <t>Sankyo Co., Ltd.</t>
   </si>
   <si>
-    <t xml:space="preserve">DAIKIN INDUSTRIES Ltd.; Daikin Industries Ltd; Daikin Industries Ltd.  </t>
+    <t>DAIKIN INDUSTRIES Ltd.; Daikin Industries Ltd; Daikin Industries Ltd.  </t>
   </si>
   <si>
     <t>Tokyo Gas Co., Ltd.; Tokyo Gas Co., Ltd; Tokyo Gas Co Ltd</t>
@@ -2818,7 +2827,7 @@
     <t>Clearway Energy Operating LLC</t>
   </si>
   <si>
-    <t xml:space="preserve">Coinbase Global, Inc. </t>
+    <t>Coinbase Global, Inc. </t>
   </si>
   <si>
     <t>COMSTOCK RESOURCES, INC.; Comstock Resources, Inc.</t>
@@ -3481,7 +3490,7 @@
     <t>Danske Bank: Fossil Fuel; Industriens: Thermal coal extraction; Lægernes: Udvinding af termisk kul; Lærernes Pension: Fossils; PenSam: Kul (kul-eksponering &gt; 5%); Velliv: Fossil - Coal expansion</t>
   </si>
   <si>
-    <t xml:space="preserve">AP Pension: Kontroversielle våben; BankInvest: Controversial Weapon - White Phosphorus; Danske Bank: Controversial Weapons; Danske Bank: Principal Adverse Impacts (PAI); Lærernes Pension: Controversial Weapons; Nykredit: Kontroversielle våben; PFA: Involveret i produktion af hvidt fosfor </t>
+    <t>AP Pension: Kontroversielle våben; BankInvest: Controversial Weapon - White Phosphorus; Danske Bank: Controversial Weapons; Danske Bank: Principal Adverse Impacts (PAI); Lærernes Pension: Controversial Weapons; Nykredit: Kontroversielle våben; PFA: Involveret i produktion af hvidt fosfor </t>
   </si>
   <si>
     <t>Danske Bank: Fossil Fuel; Lærernes Pension: Fossils; Nykredit: Fossil ekspansion; Velliv: Fossil - Transition</t>
@@ -6901,8 +6910,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6965,13 +6974,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7009,7 +7026,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -7043,6 +7060,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7077,9 +7095,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7252,14 +7271,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G714"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7282,7 +7303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7305,7 +7326,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7328,7 +7349,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7351,7 +7372,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7374,7 +7395,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7397,7 +7418,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7420,7 +7441,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7443,7 +7464,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7466,7 +7487,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +7510,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7512,7 +7533,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7535,7 +7556,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7558,7 +7579,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7581,7 +7602,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -7604,7 +7625,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7627,7 +7648,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -7650,7 +7671,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -7673,7 +7694,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -7696,7 +7717,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -7719,7 +7740,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -7742,7 +7763,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -7765,7 +7786,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -7788,7 +7809,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -7811,7 +7832,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -7834,7 +7855,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -7857,7 +7878,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -7880,7 +7901,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -7903,7 +7924,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -7926,7 +7947,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -7949,7 +7970,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -7972,7 +7993,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -7995,7 +8016,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -8018,7 +8039,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -8041,7 +8062,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -8064,7 +8085,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -8087,7 +8108,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -8110,7 +8131,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -8133,7 +8154,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -8156,7 +8177,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -8179,7 +8200,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -8202,7 +8223,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -8225,7 +8246,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -8248,7 +8269,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -8271,7 +8292,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -8294,7 +8315,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -8317,7 +8338,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -8340,7 +8361,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -8363,7 +8384,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -8386,7 +8407,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -8409,7 +8430,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -8432,7 +8453,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -8455,7 +8476,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -8478,7 +8499,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -8501,7 +8522,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -8524,7 +8545,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -8547,7 +8568,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -8570,7 +8591,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8593,7 +8614,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -8616,7 +8637,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -8639,7 +8660,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -8662,7 +8683,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -8685,7 +8706,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -8708,7 +8729,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -8731,7 +8752,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -8754,7 +8775,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -8777,7 +8798,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -8800,7 +8821,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -8823,7 +8844,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -8846,7 +8867,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -8869,7 +8890,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -8892,7 +8913,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8915,7 +8936,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -8938,7 +8959,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -8961,7 +8982,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -8984,7 +9005,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -9007,7 +9028,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -9030,7 +9051,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -9053,7 +9074,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -9076,7 +9097,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -9099,7 +9120,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -9122,7 +9143,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -9145,7 +9166,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -9168,7 +9189,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -9191,7 +9212,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -9214,7 +9235,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -9237,7 +9258,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -9260,7 +9281,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -9283,7 +9304,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -9306,7 +9327,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -9329,7 +9350,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -9352,7 +9373,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -9375,7 +9396,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -9398,7 +9419,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -9421,7 +9442,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -9444,7 +9465,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -9467,7 +9488,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -9490,7 +9511,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -9513,7 +9534,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -9536,7 +9557,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -9559,7 +9580,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -9582,7 +9603,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -9605,7 +9626,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -9628,7 +9649,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -9651,7 +9672,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -9674,7 +9695,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -9697,7 +9718,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -9720,7 +9741,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -9743,7 +9764,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -9766,7 +9787,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -9789,7 +9810,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -9812,7 +9833,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -9835,7 +9856,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -9858,7 +9879,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -9881,7 +9902,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -9904,7 +9925,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -9927,7 +9948,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -9950,7 +9971,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -9973,7 +9994,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -9996,7 +10017,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -10019,7 +10040,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -10042,7 +10063,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -10065,7 +10086,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -10088,7 +10109,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -10111,7 +10132,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -10134,7 +10155,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -10157,7 +10178,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -10180,7 +10201,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -10203,7 +10224,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -10226,7 +10247,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -10249,7 +10270,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -10272,7 +10293,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -10295,7 +10316,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -10318,7 +10339,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -10341,7 +10362,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -10364,7 +10385,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -10387,7 +10408,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -10410,7 +10431,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -10433,7 +10454,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -10456,7 +10477,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -10479,7 +10500,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -10502,7 +10523,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -10525,7 +10546,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -10548,7 +10569,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -10571,7 +10592,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -10594,7 +10615,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -10617,7 +10638,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -10640,7 +10661,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -10663,7 +10684,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -10686,7 +10707,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -10709,7 +10730,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -10732,7 +10753,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -10755,7 +10776,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -10778,7 +10799,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -10801,7 +10822,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -10824,7 +10845,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -10847,7 +10868,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -10870,7 +10891,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -10893,7 +10914,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -10916,7 +10937,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -10939,7 +10960,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -10962,7 +10983,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -10985,7 +11006,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -11008,7 +11029,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -11031,7 +11052,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -11054,7 +11075,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -11077,7 +11098,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -11100,7 +11121,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -11123,7 +11144,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -11146,7 +11167,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -11169,7 +11190,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -11192,7 +11213,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -11215,7 +11236,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -11238,7 +11259,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -11261,7 +11282,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -11284,7 +11305,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -11307,7 +11328,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -11330,7 +11351,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -11353,7 +11374,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -11376,7 +11397,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -11399,7 +11420,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -11422,7 +11443,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -11445,7 +11466,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -11468,7 +11489,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -11491,7 +11512,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -11514,7 +11535,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -11537,7 +11558,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -11560,7 +11581,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -11583,7 +11604,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -11606,7 +11627,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -11629,7 +11650,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -11652,7 +11673,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -11675,7 +11696,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -11698,7 +11719,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -11721,7 +11742,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -11744,7 +11765,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -11767,7 +11788,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -11790,7 +11811,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -11813,7 +11834,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -11836,7 +11857,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -11859,7 +11880,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -11882,7 +11903,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -11905,7 +11926,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -11928,7 +11949,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -11951,7 +11972,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -11974,7 +11995,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -11997,7 +12018,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -12020,7 +12041,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -12043,7 +12064,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -12066,7 +12087,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -12089,7 +12110,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -12112,7 +12133,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -12135,7 +12156,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -12158,7 +12179,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -12181,7 +12202,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -12204,7 +12225,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -12227,7 +12248,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -12250,7 +12271,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -12273,7 +12294,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -12296,7 +12317,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -12319,7 +12340,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -12342,7 +12363,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -12365,7 +12386,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -12388,7 +12409,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -12411,7 +12432,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -12434,7 +12455,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -12457,7 +12478,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -12480,7 +12501,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -12503,7 +12524,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -12526,7 +12547,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -12549,7 +12570,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -12572,7 +12593,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -12595,7 +12616,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -12618,7 +12639,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -12641,7 +12662,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -12664,7 +12685,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -12687,7 +12708,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -12710,7 +12731,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -12733,7 +12754,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -12756,7 +12777,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -12779,7 +12800,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -12802,7 +12823,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -12825,7 +12846,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -12848,7 +12869,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -12871,7 +12892,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -12894,7 +12915,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -12917,7 +12938,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -12940,7 +12961,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -12963,7 +12984,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -12986,7 +13007,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -13009,7 +13030,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -13032,7 +13053,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -13055,7 +13076,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>258</v>
       </c>
@@ -13078,7 +13099,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -13101,7 +13122,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -13124,7 +13145,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>261</v>
       </c>
@@ -13147,7 +13168,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -13170,7 +13191,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -13193,7 +13214,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -13216,7 +13237,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -13239,7 +13260,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -13262,7 +13283,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -13285,7 +13306,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>268</v>
       </c>
@@ -13308,7 +13329,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>269</v>
       </c>
@@ -13331,7 +13352,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -13354,7 +13375,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>271</v>
       </c>
@@ -13377,7 +13398,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -13400,7 +13421,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -13423,7 +13444,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -13446,7 +13467,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -13469,7 +13490,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -13492,7 +13513,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -13515,7 +13536,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -13538,7 +13559,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -13561,7 +13582,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -13584,7 +13605,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -13607,7 +13628,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -13630,7 +13651,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>283</v>
       </c>
@@ -13653,7 +13674,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>284</v>
       </c>
@@ -13676,7 +13697,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>285</v>
       </c>
@@ -13699,7 +13720,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>286</v>
       </c>
@@ -13722,7 +13743,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -13745,7 +13766,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>288</v>
       </c>
@@ -13768,7 +13789,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -13791,7 +13812,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>290</v>
       </c>
@@ -13814,7 +13835,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>291</v>
       </c>
@@ -13837,7 +13858,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>292</v>
       </c>
@@ -13860,7 +13881,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>293</v>
       </c>
@@ -13883,7 +13904,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>294</v>
       </c>
@@ -13906,7 +13927,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>295</v>
       </c>
@@ -13929,7 +13950,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>296</v>
       </c>
@@ -13952,7 +13973,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -13975,7 +13996,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>298</v>
       </c>
@@ -13998,7 +14019,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -14021,7 +14042,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>300</v>
       </c>
@@ -14044,7 +14065,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>301</v>
       </c>
@@ -14067,7 +14088,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -14090,7 +14111,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -14113,7 +14134,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -14136,7 +14157,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -14159,7 +14180,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -14182,7 +14203,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>307</v>
       </c>
@@ -14205,7 +14226,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>308</v>
       </c>
@@ -14228,7 +14249,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>309</v>
       </c>
@@ -14251,7 +14272,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -14274,7 +14295,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -14297,7 +14318,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -14320,7 +14341,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -14343,7 +14364,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -14366,7 +14387,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>315</v>
       </c>
@@ -14389,7 +14410,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>316</v>
       </c>
@@ -14412,7 +14433,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -14435,7 +14456,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>318</v>
       </c>
@@ -14458,7 +14479,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>319</v>
       </c>
@@ -14481,7 +14502,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>320</v>
       </c>
@@ -14504,7 +14525,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>321</v>
       </c>
@@ -14527,7 +14548,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>322</v>
       </c>
@@ -14550,7 +14571,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>323</v>
       </c>
@@ -14573,7 +14594,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>324</v>
       </c>
@@ -14596,7 +14617,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>325</v>
       </c>
@@ -14619,7 +14640,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>326</v>
       </c>
@@ -14642,7 +14663,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>327</v>
       </c>
@@ -14665,7 +14686,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>328</v>
       </c>
@@ -14688,7 +14709,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>329</v>
       </c>
@@ -14711,7 +14732,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>330</v>
       </c>
@@ -14734,7 +14755,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>331</v>
       </c>
@@ -14757,7 +14778,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>332</v>
       </c>
@@ -14780,7 +14801,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -14803,7 +14824,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>334</v>
       </c>
@@ -14826,7 +14847,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>335</v>
       </c>
@@ -14849,7 +14870,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>336</v>
       </c>
@@ -14872,7 +14893,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>337</v>
       </c>
@@ -14895,7 +14916,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>338</v>
       </c>
@@ -14918,7 +14939,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>339</v>
       </c>
@@ -14941,7 +14962,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>340</v>
       </c>
@@ -14964,7 +14985,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>341</v>
       </c>
@@ -14987,7 +15008,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>342</v>
       </c>
@@ -15010,7 +15031,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>343</v>
       </c>
@@ -15033,7 +15054,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>344</v>
       </c>
@@ -15056,7 +15077,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>345</v>
       </c>
@@ -15079,7 +15100,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>346</v>
       </c>
@@ -15102,7 +15123,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>347</v>
       </c>
@@ -15125,7 +15146,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>348</v>
       </c>
@@ -15148,7 +15169,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>349</v>
       </c>
@@ -15171,7 +15192,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>350</v>
       </c>
@@ -15194,7 +15215,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>351</v>
       </c>
@@ -15217,7 +15238,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>352</v>
       </c>
@@ -15240,7 +15261,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>353</v>
       </c>
@@ -15263,7 +15284,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>354</v>
       </c>
@@ -15286,7 +15307,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>355</v>
       </c>
@@ -15309,7 +15330,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>356</v>
       </c>
@@ -15332,7 +15353,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>357</v>
       </c>
@@ -15355,7 +15376,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>358</v>
       </c>
@@ -15378,7 +15399,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>359</v>
       </c>
@@ -15401,7 +15422,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>360</v>
       </c>
@@ -15424,7 +15445,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>361</v>
       </c>
@@ -15447,7 +15468,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>362</v>
       </c>
@@ -15470,7 +15491,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>363</v>
       </c>
@@ -15493,7 +15514,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>364</v>
       </c>
@@ -15516,7 +15537,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>365</v>
       </c>
@@ -15539,7 +15560,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>366</v>
       </c>
@@ -15562,9 +15583,9 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B362" t="s">
         <v>914</v>
@@ -15585,9 +15606,9 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B363" t="s">
         <v>914</v>
@@ -15608,7 +15629,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -15631,7 +15652,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>370</v>
       </c>
@@ -15654,7 +15675,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>371</v>
       </c>
@@ -15677,7 +15698,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>372</v>
       </c>
@@ -15700,7 +15721,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>373</v>
       </c>
@@ -15723,7 +15744,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>374</v>
       </c>
@@ -15746,7 +15767,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>375</v>
       </c>
@@ -15769,7 +15790,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>376</v>
       </c>
@@ -15792,7 +15813,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>377</v>
       </c>
@@ -15815,7 +15836,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>378</v>
       </c>
@@ -15838,7 +15859,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>379</v>
       </c>
@@ -15861,7 +15882,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>380</v>
       </c>
@@ -15884,7 +15905,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>381</v>
       </c>
@@ -15907,7 +15928,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>382</v>
       </c>
@@ -15930,7 +15951,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>383</v>
       </c>
@@ -15953,7 +15974,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>384</v>
       </c>
@@ -15976,7 +15997,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>385</v>
       </c>
@@ -15999,7 +16020,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>386</v>
       </c>
@@ -16022,7 +16043,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>387</v>
       </c>
@@ -16045,7 +16066,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>388</v>
       </c>
@@ -16068,7 +16089,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>389</v>
       </c>
@@ -16091,7 +16112,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>390</v>
       </c>
@@ -16114,7 +16135,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>391</v>
       </c>
@@ -16137,7 +16158,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>392</v>
       </c>
@@ -16160,7 +16181,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>393</v>
       </c>
@@ -16183,7 +16204,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>394</v>
       </c>
@@ -16206,7 +16227,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>395</v>
       </c>
@@ -16229,7 +16250,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>396</v>
       </c>
@@ -16252,7 +16273,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>397</v>
       </c>
@@ -16275,9 +16296,9 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B393" t="s">
         <v>919</v>
@@ -16298,9 +16319,9 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B394" t="s">
         <v>919</v>
@@ -16321,9 +16342,9 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B395" t="s">
         <v>919</v>
@@ -16344,7 +16365,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>401</v>
       </c>
@@ -16367,7 +16388,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>402</v>
       </c>
@@ -16390,7 +16411,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>403</v>
       </c>
@@ -16413,7 +16434,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>404</v>
       </c>
@@ -16436,7 +16457,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>405</v>
       </c>
@@ -16459,7 +16480,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>406</v>
       </c>
@@ -16482,7 +16503,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>407</v>
       </c>
@@ -16505,7 +16526,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>408</v>
       </c>
@@ -16528,7 +16549,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>409</v>
       </c>
@@ -16551,7 +16572,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>410</v>
       </c>
@@ -16574,7 +16595,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>411</v>
       </c>
@@ -16597,7 +16618,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>412</v>
       </c>
@@ -16620,7 +16641,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>413</v>
       </c>
@@ -16643,7 +16664,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>414</v>
       </c>
@@ -16666,7 +16687,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>415</v>
       </c>
@@ -16689,7 +16710,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>416</v>
       </c>
@@ -16712,7 +16733,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>417</v>
       </c>
@@ -16735,7 +16756,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>418</v>
       </c>
@@ -16758,7 +16779,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>419</v>
       </c>
@@ -16781,7 +16802,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>420</v>
       </c>
@@ -16804,7 +16825,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>421</v>
       </c>
@@ -16827,7 +16848,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>422</v>
       </c>
@@ -16850,7 +16871,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>423</v>
       </c>
@@ -16873,7 +16894,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>424</v>
       </c>
@@ -16896,7 +16917,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>425</v>
       </c>
@@ -16919,7 +16940,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>426</v>
       </c>
@@ -16942,7 +16963,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>427</v>
       </c>
@@ -16965,7 +16986,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>428</v>
       </c>
@@ -16988,7 +17009,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>429</v>
       </c>
@@ -17011,7 +17032,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>430</v>
       </c>
@@ -17034,7 +17055,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>431</v>
       </c>
@@ -17057,7 +17078,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>432</v>
       </c>
@@ -17080,7 +17101,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>433</v>
       </c>
@@ -17103,7 +17124,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>434</v>
       </c>
@@ -17126,7 +17147,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>435</v>
       </c>
@@ -17149,7 +17170,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>436</v>
       </c>
@@ -17172,7 +17193,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>437</v>
       </c>
@@ -17195,7 +17216,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>438</v>
       </c>
@@ -17218,7 +17239,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>439</v>
       </c>
@@ -17241,7 +17262,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>440</v>
       </c>
@@ -17264,7 +17285,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>441</v>
       </c>
@@ -17287,7 +17308,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>442</v>
       </c>
@@ -17310,7 +17331,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>443</v>
       </c>
@@ -17333,7 +17354,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>444</v>
       </c>
@@ -17356,7 +17377,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>445</v>
       </c>
@@ -17379,7 +17400,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>446</v>
       </c>
@@ -17402,7 +17423,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>447</v>
       </c>
@@ -17425,7 +17446,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>448</v>
       </c>
@@ -17448,7 +17469,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>449</v>
       </c>
@@ -17471,7 +17492,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>450</v>
       </c>
@@ -17494,7 +17515,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>451</v>
       </c>
@@ -17517,7 +17538,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>452</v>
       </c>
@@ -17540,7 +17561,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>453</v>
       </c>
@@ -17563,7 +17584,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>454</v>
       </c>
@@ -17586,7 +17607,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>455</v>
       </c>
@@ -17609,7 +17630,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>456</v>
       </c>
@@ -17632,7 +17653,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>457</v>
       </c>
@@ -17655,7 +17676,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>458</v>
       </c>
@@ -17678,7 +17699,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>459</v>
       </c>
@@ -17701,7 +17722,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>460</v>
       </c>
@@ -17724,7 +17745,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>461</v>
       </c>
@@ -17747,7 +17768,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>462</v>
       </c>
@@ -17770,7 +17791,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>463</v>
       </c>
@@ -17793,7 +17814,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>464</v>
       </c>
@@ -17816,7 +17837,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>465</v>
       </c>
@@ -17839,7 +17860,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>466</v>
       </c>
@@ -17862,7 +17883,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>467</v>
       </c>
@@ -17885,7 +17906,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>468</v>
       </c>
@@ -17908,7 +17929,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>469</v>
       </c>
@@ -17931,7 +17952,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>470</v>
       </c>
@@ -17954,7 +17975,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>471</v>
       </c>
@@ -17977,7 +17998,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>472</v>
       </c>
@@ -18000,7 +18021,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>473</v>
       </c>
@@ -18023,7 +18044,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>474</v>
       </c>
@@ -18046,7 +18067,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>475</v>
       </c>
@@ -18069,7 +18090,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>476</v>
       </c>
@@ -18092,7 +18113,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>477</v>
       </c>
@@ -18115,7 +18136,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>478</v>
       </c>
@@ -18138,7 +18159,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>479</v>
       </c>
@@ -18161,7 +18182,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>480</v>
       </c>
@@ -18184,9 +18205,9 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B476" t="s">
         <v>985</v>
@@ -18207,9 +18228,9 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B477" t="s">
         <v>985</v>
@@ -18230,7 +18251,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>483</v>
       </c>
@@ -18253,7 +18274,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>484</v>
       </c>
@@ -18276,7 +18297,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>485</v>
       </c>
@@ -18299,7 +18320,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>486</v>
       </c>
@@ -18322,7 +18343,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>487</v>
       </c>
@@ -18345,7 +18366,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>488</v>
       </c>
@@ -18368,7 +18389,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>489</v>
       </c>
@@ -18391,7 +18412,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>490</v>
       </c>
@@ -18414,7 +18435,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>491</v>
       </c>
@@ -18437,7 +18458,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>492</v>
       </c>
@@ -18460,7 +18481,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>493</v>
       </c>
@@ -18483,7 +18504,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>494</v>
       </c>
@@ -18506,7 +18527,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>495</v>
       </c>
@@ -18529,7 +18550,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>496</v>
       </c>
@@ -18552,7 +18573,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>497</v>
       </c>
@@ -18575,7 +18596,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>498</v>
       </c>
@@ -18598,7 +18619,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>499</v>
       </c>
@@ -18621,7 +18642,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>500</v>
       </c>
@@ -18644,7 +18665,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>501</v>
       </c>
@@ -18667,7 +18688,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>502</v>
       </c>
@@ -18690,7 +18711,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>503</v>
       </c>
@@ -18713,7 +18734,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>504</v>
       </c>
@@ -18736,7 +18757,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>505</v>
       </c>
@@ -18759,7 +18780,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>506</v>
       </c>
@@ -18782,7 +18803,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>507</v>
       </c>
@@ -18805,7 +18826,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>508</v>
       </c>
@@ -18828,7 +18849,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>509</v>
       </c>
@@ -18851,7 +18872,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>510</v>
       </c>
@@ -18874,7 +18895,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>511</v>
       </c>
@@ -18897,7 +18918,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>512</v>
       </c>
@@ -18920,7 +18941,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>513</v>
       </c>
@@ -18943,7 +18964,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>514</v>
       </c>
@@ -18966,7 +18987,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>515</v>
       </c>
@@ -18989,7 +19010,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>516</v>
       </c>
@@ -19012,7 +19033,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>517</v>
       </c>
@@ -19035,7 +19056,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>518</v>
       </c>
@@ -19058,7 +19079,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>519</v>
       </c>
@@ -19081,7 +19102,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>520</v>
       </c>
@@ -19104,7 +19125,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>521</v>
       </c>
@@ -19127,7 +19148,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>522</v>
       </c>
@@ -19150,7 +19171,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>523</v>
       </c>
@@ -19173,7 +19194,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>524</v>
       </c>
@@ -19196,7 +19217,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>525</v>
       </c>
@@ -19219,7 +19240,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>526</v>
       </c>
@@ -19242,7 +19263,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>527</v>
       </c>
@@ -19265,7 +19286,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>528</v>
       </c>
@@ -19288,7 +19309,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>529</v>
       </c>
@@ -19311,7 +19332,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>530</v>
       </c>
@@ -19334,7 +19355,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>531</v>
       </c>
@@ -19357,7 +19378,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>532</v>
       </c>
@@ -19380,7 +19401,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>533</v>
       </c>
@@ -19403,7 +19424,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>534</v>
       </c>
@@ -19426,7 +19447,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>535</v>
       </c>
@@ -19449,7 +19470,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>536</v>
       </c>
@@ -19472,7 +19493,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>537</v>
       </c>
@@ -19495,7 +19516,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>538</v>
       </c>
@@ -19518,7 +19539,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>539</v>
       </c>
@@ -19541,7 +19562,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>540</v>
       </c>
@@ -19564,7 +19585,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>541</v>
       </c>
@@ -19587,7 +19608,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>542</v>
       </c>
@@ -19610,7 +19631,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>543</v>
       </c>
@@ -19633,7 +19654,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>544</v>
       </c>
@@ -19656,7 +19677,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>545</v>
       </c>
@@ -19679,9 +19700,9 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B541" t="s">
         <v>1020</v>
@@ -19702,9 +19723,9 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B542" t="s">
         <v>1020</v>
@@ -19725,7 +19746,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>548</v>
       </c>
@@ -19748,7 +19769,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>549</v>
       </c>
@@ -19771,7 +19792,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>550</v>
       </c>
@@ -19794,7 +19815,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>551</v>
       </c>
@@ -19817,7 +19838,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>552</v>
       </c>
@@ -19840,7 +19861,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>553</v>
       </c>
@@ -19863,7 +19884,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>554</v>
       </c>
@@ -19886,7 +19907,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>555</v>
       </c>
@@ -19909,9 +19930,9 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B551" t="s">
         <v>1018</v>
@@ -19932,9 +19953,9 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B552" t="s">
         <v>1018</v>
@@ -19955,9 +19976,9 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B553" t="s">
         <v>1018</v>
@@ -19978,9 +19999,9 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B554" t="s">
         <v>1018</v>
@@ -20001,9 +20022,9 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B555" t="s">
         <v>1018</v>
@@ -20024,7 +20045,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>561</v>
       </c>
@@ -20047,7 +20068,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>562</v>
       </c>
@@ -20070,7 +20091,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>563</v>
       </c>
@@ -20093,7 +20114,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>564</v>
       </c>
@@ -20116,7 +20137,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>565</v>
       </c>
@@ -20139,7 +20160,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>566</v>
       </c>
@@ -20162,7 +20183,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>567</v>
       </c>
@@ -20185,7 +20206,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>568</v>
       </c>
@@ -20208,7 +20229,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>569</v>
       </c>
@@ -20231,7 +20252,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>570</v>
       </c>
@@ -20254,7 +20275,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>571</v>
       </c>
@@ -20277,7 +20298,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>572</v>
       </c>
@@ -20300,7 +20321,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>573</v>
       </c>
@@ -20323,7 +20344,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>574</v>
       </c>
@@ -20346,7 +20367,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>575</v>
       </c>
@@ -20369,7 +20390,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>576</v>
       </c>
@@ -20392,7 +20413,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>577</v>
       </c>
@@ -20415,7 +20436,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>578</v>
       </c>
@@ -20438,7 +20459,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>579</v>
       </c>
@@ -20461,7 +20482,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>580</v>
       </c>
@@ -20484,7 +20505,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>581</v>
       </c>
@@ -20507,7 +20528,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>582</v>
       </c>
@@ -20530,7 +20551,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>583</v>
       </c>
@@ -20553,7 +20574,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>584</v>
       </c>
@@ -20576,7 +20597,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>585</v>
       </c>
@@ -20599,7 +20620,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>586</v>
       </c>
@@ -20622,7 +20643,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>587</v>
       </c>
@@ -20645,7 +20666,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>588</v>
       </c>
@@ -20668,7 +20689,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>589</v>
       </c>
@@ -20691,7 +20712,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>590</v>
       </c>
@@ -20714,7 +20735,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>591</v>
       </c>
@@ -20737,7 +20758,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>592</v>
       </c>
@@ -20760,7 +20781,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>593</v>
       </c>
@@ -20783,7 +20804,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>594</v>
       </c>
@@ -20806,7 +20827,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>595</v>
       </c>
@@ -20829,7 +20850,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>596</v>
       </c>
@@ -20852,7 +20873,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>597</v>
       </c>
@@ -20875,7 +20896,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>598</v>
       </c>
@@ -20898,7 +20919,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>599</v>
       </c>
@@ -20921,7 +20942,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>600</v>
       </c>
@@ -20944,7 +20965,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>601</v>
       </c>
@@ -20967,7 +20988,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>602</v>
       </c>
@@ -20990,7 +21011,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>603</v>
       </c>
@@ -21013,7 +21034,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>604</v>
       </c>
@@ -21036,7 +21057,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>605</v>
       </c>
@@ -21059,7 +21080,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>606</v>
       </c>
@@ -21082,7 +21103,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>607</v>
       </c>
@@ -21105,7 +21126,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>608</v>
       </c>
@@ -21128,7 +21149,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>609</v>
       </c>
@@ -21151,7 +21172,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>610</v>
       </c>
@@ -21174,7 +21195,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>611</v>
       </c>
@@ -21197,7 +21218,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>612</v>
       </c>
@@ -21220,7 +21241,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>613</v>
       </c>
@@ -21243,7 +21264,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>614</v>
       </c>
@@ -21266,7 +21287,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>615</v>
       </c>
@@ -21289,7 +21310,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>616</v>
       </c>
@@ -21312,7 +21333,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>617</v>
       </c>
@@ -21335,7 +21356,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>618</v>
       </c>
@@ -21358,7 +21379,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>619</v>
       </c>
@@ -21381,7 +21402,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>620</v>
       </c>
@@ -21404,7 +21425,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>621</v>
       </c>
@@ -21427,7 +21448,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>622</v>
       </c>
@@ -21450,7 +21471,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>623</v>
       </c>
@@ -21473,7 +21494,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>624</v>
       </c>
@@ -21496,7 +21517,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>625</v>
       </c>
@@ -21519,7 +21540,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>626</v>
       </c>
@@ -21542,7 +21563,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>627</v>
       </c>
@@ -21565,7 +21586,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>628</v>
       </c>
@@ -21588,7 +21609,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>629</v>
       </c>
@@ -21611,7 +21632,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>630</v>
       </c>
@@ -21634,7 +21655,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>631</v>
       </c>
@@ -21657,7 +21678,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>632</v>
       </c>
@@ -21680,7 +21701,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>633</v>
       </c>
@@ -21703,7 +21724,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>634</v>
       </c>
@@ -21726,7 +21747,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>635</v>
       </c>
@@ -21749,7 +21770,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>636</v>
       </c>
@@ -21772,7 +21793,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>637</v>
       </c>
@@ -21795,7 +21816,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>638</v>
       </c>
@@ -21818,7 +21839,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>639</v>
       </c>
@@ -21841,7 +21862,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>640</v>
       </c>
@@ -21864,7 +21885,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>641</v>
       </c>
@@ -21887,7 +21908,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>642</v>
       </c>
@@ -21910,7 +21931,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>643</v>
       </c>
@@ -21933,7 +21954,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>644</v>
       </c>
@@ -21956,7 +21977,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>645</v>
       </c>
@@ -21979,7 +22000,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>646</v>
       </c>
@@ -22002,7 +22023,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>647</v>
       </c>
@@ -22025,7 +22046,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>648</v>
       </c>
@@ -22048,7 +22069,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>649</v>
       </c>
@@ -22071,7 +22092,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>650</v>
       </c>
@@ -22094,7 +22115,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>651</v>
       </c>
@@ -22117,7 +22138,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>652</v>
       </c>
@@ -22140,7 +22161,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>653</v>
       </c>
@@ -22163,7 +22184,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>654</v>
       </c>
@@ -22186,7 +22207,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>655</v>
       </c>
@@ -22209,7 +22230,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>656</v>
       </c>
@@ -22232,7 +22253,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>657</v>
       </c>
@@ -22255,7 +22276,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>658</v>
       </c>
@@ -22278,7 +22299,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>659</v>
       </c>
@@ -22301,7 +22322,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>660</v>
       </c>
@@ -22324,7 +22345,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>661</v>
       </c>
@@ -22347,7 +22368,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>662</v>
       </c>
@@ -22370,7 +22391,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>663</v>
       </c>
@@ -22393,7 +22414,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>664</v>
       </c>
@@ -22416,7 +22437,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>665</v>
       </c>
@@ -22439,7 +22460,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>666</v>
       </c>
@@ -22462,7 +22483,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>667</v>
       </c>
@@ -22485,7 +22506,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>668</v>
       </c>
@@ -22508,7 +22529,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>669</v>
       </c>
@@ -22531,7 +22552,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>670</v>
       </c>
@@ -22554,7 +22575,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>671</v>
       </c>
@@ -22577,7 +22598,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>672</v>
       </c>
@@ -22600,7 +22621,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>673</v>
       </c>
@@ -22623,7 +22644,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>674</v>
       </c>
@@ -22646,7 +22667,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>675</v>
       </c>
@@ -22669,7 +22690,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>676</v>
       </c>
@@ -22692,7 +22713,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>677</v>
       </c>
@@ -22715,7 +22736,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>678</v>
       </c>
@@ -22738,7 +22759,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>679</v>
       </c>
@@ -22761,7 +22782,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>680</v>
       </c>
@@ -22784,7 +22805,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>681</v>
       </c>
@@ -22807,7 +22828,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>682</v>
       </c>
@@ -22830,7 +22851,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>683</v>
       </c>
@@ -22853,7 +22874,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>684</v>
       </c>
@@ -22876,7 +22897,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>685</v>
       </c>
@@ -22899,7 +22920,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>686</v>
       </c>
@@ -22922,7 +22943,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>687</v>
       </c>
@@ -22945,7 +22966,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>688</v>
       </c>
@@ -22968,7 +22989,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>689</v>
       </c>
@@ -22991,7 +23012,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>690</v>
       </c>
@@ -23014,7 +23035,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>691</v>
       </c>
@@ -23037,7 +23058,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>692</v>
       </c>
@@ -23060,7 +23081,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>693</v>
       </c>
@@ -23083,7 +23104,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>694</v>
       </c>
@@ -23106,7 +23127,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>695</v>
       </c>
@@ -23129,7 +23150,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>696</v>
       </c>
@@ -23152,7 +23173,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>697</v>
       </c>
@@ -23175,7 +23196,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>698</v>
       </c>
@@ -23198,7 +23219,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>699</v>
       </c>
@@ -23221,7 +23242,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>700</v>
       </c>
@@ -23244,7 +23265,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>701</v>
       </c>
@@ -23267,7 +23288,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>702</v>
       </c>
@@ -23290,7 +23311,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>703</v>
       </c>
@@ -23313,7 +23334,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>704</v>
       </c>
@@ -23336,7 +23357,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>705</v>
       </c>
@@ -23359,7 +23380,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>706</v>
       </c>
@@ -23382,7 +23403,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>707</v>
       </c>
@@ -23405,7 +23426,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>708</v>
       </c>
@@ -23428,7 +23449,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>709</v>
       </c>
@@ -23451,7 +23472,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>710</v>
       </c>
@@ -23474,7 +23495,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>711</v>
       </c>
@@ -23497,7 +23518,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>712</v>
       </c>
@@ -23520,7 +23541,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>713</v>
       </c>
@@ -23543,7 +23564,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>714</v>
       </c>
@@ -23566,7 +23587,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>715</v>
       </c>
@@ -23589,7 +23610,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>716</v>
       </c>
@@ -23612,7 +23633,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>717</v>
       </c>
@@ -23635,7 +23656,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>718</v>
       </c>
@@ -23658,7 +23679,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>719</v>
       </c>
@@ -23682,6 +23703,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G714">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/all_exclude_lists_isin.xlsx
+++ b/data/all_exclude_lists_isin.xlsx
@@ -2929,7 +2929,7 @@
     <t>Danske Bank: Fossil Fuel; Industriens Pension: Thermal coal extraction; Lægernes Pension: Udvinding af termisk kul; Lærernes Pension: Fossils; PenSam: Kul (kul-eksponering &gt; 5%); Velliv: Fossil - Coal expansion</t>
   </si>
   <si>
-    <t xml:space="preserve">AP Pension: Kontroversielle våben; BankInvest: Controversial Weapon - White Phosphorus; Danske Bank: Controversial Weapons; Danske Bank: Principal Adverse Impacts (PAI); Lærernes Pension: Controversial Weapons; Nykredit: Kontroversielle våben; PFA: Involveret i produktion af hvidt fosfor </t>
+    <t xml:space="preserve">OBS: Mange har frasolgt dette papir igen. Tjek om det stadig ejes.; AP Pension: Kontroversielle våben; BankInvest: Controversial Weapon - White Phosphorus; Danske Bank: Controversial Weapons; Danske Bank: Principal Adverse Impacts (PAI); Lærernes Pension: Controversial Weapons; Nykredit: Kontroversielle våben; PFA: Involveret i produktion af hvidt fosfor </t>
   </si>
   <si>
     <t>Danske Bank: Fossil Fuel; Lærernes Pension: Fossils; Nykredit: Fossil ekspansion; Velliv: Fossil - Transition</t>
@@ -6430,7 +6430,7 @@
     <t>Fossil Fuel; Thermal coal extraction; Udvinding af termisk kul; Fossils; Kul (kul-eksponering &gt; 5%); Fossil - Coal expansion</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontroversielle våben; Controversial Weapon - White Phosphorus; Controversial Weapons; Principal Adverse Impacts (PAI); Involveret i produktion af hvidt fosfor </t>
+    <t xml:space="preserve">Mange har frasolgt dette papir igen. Tjek om det stadig ejes.; Kontroversielle våben; Controversial Weapon - White Phosphorus; Controversial Weapons; Principal Adverse Impacts (PAI); Involveret i produktion af hvidt fosfor </t>
   </si>
   <si>
     <t>Fossil Fuel; Fossils; Fossil ekspansion; Fossil - Transition</t>
